--- a/HROADS-SENAI/modelagem-HROADS/Hroads-modelagem-fisico.xlsx
+++ b/HROADS-SENAI/modelagem-HROADS/Hroads-modelagem-fisico.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samue\Documents\Desenvolvimento de sistemas\Desenvolvimento de Sistemas\Banco de dados\Sprint 1\Desafio-Hroads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vinicius\Desktop\Senai_Hroads_API_2DT\HROADS-SENAI\modelagem-HROADS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48CB4A17-5B44-4356-A72C-7747FF07A44A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E8CEC8D-A0A4-4986-9879-49170306CFEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{5B9D3288-11C5-40DE-97AF-AFB42676E53E}"/>
+    <workbookView minimized="1" xWindow="4485" yWindow="990" windowWidth="15375" windowHeight="7875" xr2:uid="{5B9D3288-11C5-40DE-97AF-AFB42676E53E}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
   <si>
     <t>tipoHabilidade</t>
   </si>
@@ -87,9 +87,6 @@
     <t>Recuperar Vida</t>
   </si>
   <si>
-    <t>NULL</t>
-  </si>
-  <si>
     <t>Bárbaro</t>
   </si>
   <si>
@@ -111,15 +108,6 @@
     <t>Arcanista</t>
   </si>
   <si>
-    <t>idHabilidade2</t>
-  </si>
-  <si>
-    <t>habilidade2</t>
-  </si>
-  <si>
-    <t>nomeHabilidade2</t>
-  </si>
-  <si>
     <t>DeuBug</t>
   </si>
   <si>
@@ -129,22 +117,31 @@
     <t>Fer8</t>
   </si>
   <si>
-    <t>idTipoHabilidade2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>idHabilidade1</t>
-  </si>
-  <si>
-    <t>idTipoHabilidade1</t>
-  </si>
-  <si>
-    <t>nomeHabilidade1</t>
-  </si>
-  <si>
-    <t>habilidade1</t>
+    <t>habilidade</t>
+  </si>
+  <si>
+    <t>idHabilidade</t>
+  </si>
+  <si>
+    <t>nomeHabilidade</t>
+  </si>
+  <si>
+    <t>classeHabilidade</t>
+  </si>
+  <si>
+    <t>idClasseHabilidade</t>
+  </si>
+  <si>
+    <t>Classe</t>
+  </si>
+  <si>
+    <t>NomePersonagem</t>
+  </si>
+  <si>
+    <t>capacidadeDeVidaMax</t>
+  </si>
+  <si>
+    <t>capacidadeDeManaMax</t>
   </si>
 </sst>
 </file>
@@ -160,7 +157,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -215,8 +212,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -299,48 +302,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -412,6 +417,45 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -726,10 +770,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03624503-7B4D-416C-8BB8-14BA7E7934D4}">
-  <dimension ref="B2:M21"/>
+  <dimension ref="B2:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18:B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -740,9 +784,9 @@
     <col min="5" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="17.42578125" bestFit="1" customWidth="1"/>
@@ -752,154 +796,128 @@
     <col min="20" max="20" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B2" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3"/>
+      <c r="C2" s="31"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="37"/>
-      <c r="J2" s="7" t="s">
+      <c r="E2" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="33"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="26"/>
+      <c r="J2" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="9"/>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="14" t="s">
+      <c r="K2" s="39"/>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="1"/>
-      <c r="E3" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" s="34"/>
-      <c r="J3" s="22" t="s">
+      <c r="E3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="23"/>
+      <c r="J3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="L3" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="M3" s="23" t="s">
+      <c r="K3" s="12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="15">
-        <v>1</v>
-      </c>
-      <c r="C4" s="16" t="s">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="19">
-        <v>1</v>
-      </c>
-      <c r="F4" s="19">
-        <v>1</v>
-      </c>
-      <c r="G4" s="20" t="s">
+      <c r="E4" s="8">
+        <v>1</v>
+      </c>
+      <c r="F4" s="8">
+        <v>1</v>
+      </c>
+      <c r="G4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="35"/>
-      <c r="J4" s="24">
-        <v>1</v>
-      </c>
-      <c r="K4" s="24">
-        <v>1</v>
-      </c>
-      <c r="L4" s="24">
+      <c r="H4" s="24"/>
+      <c r="J4" s="13">
+        <v>1</v>
+      </c>
+      <c r="K4" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B5" s="4">
         <v>2</v>
       </c>
-      <c r="M4" s="25" t="s">
+      <c r="C5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="8">
+        <v>2</v>
+      </c>
+      <c r="F5" s="8">
+        <v>2</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="24"/>
+      <c r="J5" s="13">
+        <v>2</v>
+      </c>
+      <c r="K5" s="14" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="15">
-        <v>2</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="19">
-        <v>2</v>
-      </c>
-      <c r="F5" s="19">
-        <v>2</v>
-      </c>
-      <c r="G5" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="35"/>
-      <c r="J5" s="24">
-        <v>2</v>
-      </c>
-      <c r="K5" s="24">
-        <v>2</v>
-      </c>
-      <c r="L5" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="M5" s="25" t="s">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B6" s="4">
+        <v>3</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="6">
+        <v>3</v>
+      </c>
+      <c r="F6" s="6">
+        <v>3</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="24"/>
+      <c r="J6" s="13">
+        <v>3</v>
+      </c>
+      <c r="K6" s="14" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="15">
-        <v>3</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="17">
-        <v>3</v>
-      </c>
-      <c r="F6" s="17">
-        <v>3</v>
-      </c>
-      <c r="G6" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="35"/>
-      <c r="J6" s="24">
-        <v>3</v>
-      </c>
-      <c r="K6" s="24">
-        <v>1</v>
-      </c>
-      <c r="L6" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="M6" s="25" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="13">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="2">
         <v>4</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="1"/>
@@ -907,20 +925,14 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="J7" s="24">
+      <c r="J7" s="13">
         <v>4</v>
       </c>
-      <c r="K7" s="24">
-        <v>3</v>
-      </c>
-      <c r="L7" s="24">
-        <v>2</v>
-      </c>
-      <c r="M7" s="25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="K7" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -928,20 +940,14 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="J8" s="24">
+      <c r="J8" s="13">
         <v>5</v>
       </c>
-      <c r="K8" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="L8" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="M8" s="25" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="K8" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -949,20 +955,14 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="J9" s="24">
+      <c r="J9" s="13">
         <v>6</v>
       </c>
-      <c r="K9" s="24">
-        <v>3</v>
-      </c>
-      <c r="L9" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="M9" s="25" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="K9" s="14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -970,20 +970,14 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-      <c r="J10" s="22">
+      <c r="J10" s="11">
         <v>7</v>
       </c>
-      <c r="K10" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="L10" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="M10" s="26" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="K10" s="15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -996,68 +990,68 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="10" t="s">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="12"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="37"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B13" s="27" t="s">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="27" t="s">
+      <c r="C13" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="27" t="s">
+      <c r="E13" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="27" t="s">
+      <c r="F13" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="G13" s="27" t="s">
+      <c r="G13" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="H13" s="28" t="s">
+      <c r="H13" s="17" t="s">
         <v>12</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B14" s="29">
-        <v>1</v>
-      </c>
-      <c r="C14" s="29">
-        <v>1</v>
-      </c>
-      <c r="D14" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" s="29">
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="18">
+        <v>1</v>
+      </c>
+      <c r="C14" s="18">
+        <v>1</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="18">
         <v>100</v>
       </c>
-      <c r="F14" s="29">
+      <c r="F14" s="18">
         <v>80</v>
       </c>
-      <c r="G14" s="30">
+      <c r="G14" s="19">
         <v>44417</v>
       </c>
-      <c r="H14" s="31">
+      <c r="H14" s="20">
         <v>43483</v>
       </c>
       <c r="I14" s="1"/>
@@ -1065,57 +1059,65 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B15" s="29">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B15" s="18">
         <v>2</v>
       </c>
-      <c r="C15" s="29">
+      <c r="C15" s="18">
+        <v>1</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="18">
+        <v>70</v>
+      </c>
+      <c r="F15" s="18">
+        <v>100</v>
+      </c>
+      <c r="G15" s="19">
+        <v>44417</v>
+      </c>
+      <c r="H15" s="20">
+        <v>42446</v>
+      </c>
+      <c r="J15" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="K15" s="41"/>
+      <c r="L15" s="41"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B16" s="16">
+        <v>3</v>
+      </c>
+      <c r="C16" s="16">
+        <v>3</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="16">
+        <v>75</v>
+      </c>
+      <c r="F16" s="16">
+        <v>60</v>
+      </c>
+      <c r="G16" s="21">
+        <v>44417</v>
+      </c>
+      <c r="H16" s="22">
+        <v>43177</v>
+      </c>
+      <c r="J16" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="K16" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="29">
-        <v>70</v>
-      </c>
-      <c r="F15" s="29">
-        <v>100</v>
-      </c>
-      <c r="G15" s="30">
-        <v>44417</v>
-      </c>
-      <c r="H15" s="31">
-        <v>42446</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="27">
-        <v>3</v>
-      </c>
-      <c r="C16" s="27">
-        <v>7</v>
-      </c>
-      <c r="D16" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16" s="27">
-        <v>75</v>
-      </c>
-      <c r="F16" s="27">
-        <v>60</v>
-      </c>
-      <c r="G16" s="32">
-        <v>44417</v>
-      </c>
-      <c r="H16" s="33">
-        <v>43177</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="K16" s="5"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="37"/>
+      <c r="L16" s="28" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
@@ -1125,79 +1127,125 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
-      <c r="J17" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="K17" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="L17" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="M17" s="34"/>
+      <c r="J17" s="28">
+        <v>1</v>
+      </c>
+      <c r="K17" s="28">
+        <v>1</v>
+      </c>
+      <c r="L17" s="28">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-      <c r="J18" s="19">
-        <v>1</v>
-      </c>
-      <c r="K18" s="19">
-        <v>1</v>
-      </c>
-      <c r="L18" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="M18" s="35"/>
+      <c r="J18" s="28">
+        <v>2</v>
+      </c>
+      <c r="K18" s="28">
+        <v>1</v>
+      </c>
+      <c r="L18" s="28">
+        <v>2</v>
+      </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="1"/>
+      <c r="B19" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
-      <c r="J19" s="19">
+      <c r="J19" s="28">
+        <v>3</v>
+      </c>
+      <c r="K19" s="28">
         <v>2</v>
       </c>
-      <c r="K19" s="19">
+      <c r="L19" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>36</v>
+      </c>
+      <c r="J20" s="29">
+        <v>4</v>
+      </c>
+      <c r="K20" s="29">
+        <v>3</v>
+      </c>
+      <c r="L20" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B21" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="J21" s="28">
+        <v>5</v>
+      </c>
+      <c r="K21" s="28">
+        <v>4</v>
+      </c>
+      <c r="L21" s="28">
+        <v>3</v>
+      </c>
+      <c r="M21" s="25"/>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B22" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="J22" s="28">
+        <v>6</v>
+      </c>
+      <c r="K22" s="28">
+        <v>4</v>
+      </c>
+      <c r="L22" s="28">
         <v>2</v>
       </c>
-      <c r="L19" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="M19" s="35" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="J20" s="17">
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B23" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="J23" s="28">
+        <v>7</v>
+      </c>
+      <c r="K23" s="28">
+        <v>6</v>
+      </c>
+      <c r="L23" s="28">
         <v>3</v>
       </c>
-      <c r="K20" s="17">
-        <v>3</v>
-      </c>
-      <c r="L20" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="M20" s="35"/>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="M21" s="36"/>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B24" s="23" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="J16:L16"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="B12:H12"/>
-    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="J15:L15"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/HROADS-SENAI/modelagem-HROADS/Hroads-modelagem-fisico.xlsx
+++ b/HROADS-SENAI/modelagem-HROADS/Hroads-modelagem-fisico.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vinicius\Desktop\Senai_Hroads_API_2DT\HROADS-SENAI\modelagem-HROADS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E8CEC8D-A0A4-4986-9879-49170306CFEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E277839-B558-4482-9ECF-6BDEDEB0C3DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="4485" yWindow="990" windowWidth="15375" windowHeight="7875" xr2:uid="{5B9D3288-11C5-40DE-97AF-AFB42676E53E}"/>
+    <workbookView minimized="1" xWindow="4830" yWindow="1335" windowWidth="15375" windowHeight="7875" xr2:uid="{5B9D3288-11C5-40DE-97AF-AFB42676E53E}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
   <si>
     <t>tipoHabilidade</t>
   </si>
@@ -130,18 +130,6 @@
   </si>
   <si>
     <t>idClasseHabilidade</t>
-  </si>
-  <si>
-    <t>Classe</t>
-  </si>
-  <si>
-    <t>NomePersonagem</t>
-  </si>
-  <si>
-    <t>capacidadeDeVidaMax</t>
-  </si>
-  <si>
-    <t>capacidadeDeManaMax</t>
   </si>
 </sst>
 </file>
@@ -770,10 +758,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03624503-7B4D-416C-8BB8-14BA7E7934D4}">
-  <dimension ref="B2:M24"/>
+  <dimension ref="B2:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:B24"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1064,7 +1052,7 @@
         <v>2</v>
       </c>
       <c r="C15" s="18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D15" s="18" t="s">
         <v>28</v>
@@ -1092,7 +1080,7 @@
         <v>3</v>
       </c>
       <c r="C16" s="16">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D16" s="16" t="s">
         <v>29</v>
@@ -1119,8 +1107,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B17" s="1"/>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -1137,10 +1124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
-        <v>7</v>
-      </c>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -1157,10 +1141,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
-        <v>35</v>
-      </c>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -1177,10 +1158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>36</v>
-      </c>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.25">
       <c r="J20" s="29">
         <v>4</v>
       </c>
@@ -1191,10 +1169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B21" s="23" t="s">
-        <v>37</v>
-      </c>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.25">
       <c r="J21" s="28">
         <v>5</v>
       </c>
@@ -1206,10 +1181,7 @@
       </c>
       <c r="M21" s="25"/>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B22" s="23" t="s">
-        <v>38</v>
-      </c>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.25">
       <c r="J22" s="28">
         <v>6</v>
       </c>
@@ -1220,10 +1192,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B23" s="23" t="s">
-        <v>11</v>
-      </c>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.25">
       <c r="J23" s="28">
         <v>7</v>
       </c>
@@ -1232,11 +1201,6 @@
       </c>
       <c r="L23" s="28">
         <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B24" s="23" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
